--- a/VisualSurvey_RImport.xlsx
+++ b/VisualSurvey_RImport.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Dropbox (Instream)\Projects\45 - Carpenter Reservoir MON-4\3 - Analyses\VisualSurveys\VisualSurveys_Carpenter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="330" yWindow="-135" windowWidth="20730" windowHeight="7035"/>
   </bookViews>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$128</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="93">
   <si>
     <t>date</t>
   </si>
@@ -231,9 +236,6 @@
     <t>bsucount.above</t>
   </si>
   <si>
-    <t>Started separating count above and below full pool elevation, which for me was the treeline</t>
-  </si>
-  <si>
     <t>ap/cj</t>
   </si>
   <si>
@@ -298,16 +300,19 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>Added for plotting purposes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +362,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,9 +448,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,6 +483,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -644,15 +659,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D147" sqref="D147"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -671,7 +686,7 @@
     <col min="17" max="17" width="64.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41423</v>
       </c>
@@ -744,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41423</v>
       </c>
@@ -767,7 +782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41423</v>
       </c>
@@ -790,7 +805,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>41423</v>
       </c>
@@ -810,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41430</v>
       </c>
@@ -830,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41430</v>
       </c>
@@ -850,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41430</v>
       </c>
@@ -870,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>41430</v>
       </c>
@@ -890,7 +905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41436</v>
       </c>
@@ -913,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41436</v>
       </c>
@@ -933,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41436</v>
       </c>
@@ -953,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>41436</v>
       </c>
@@ -973,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41443</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41443</v>
       </c>
@@ -1019,7 +1034,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41443</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>41443</v>
       </c>
@@ -1068,7 +1083,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41457</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41457</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41457</v>
       </c>
@@ -1128,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>41457</v>
       </c>
@@ -1148,7 +1163,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41464</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41464</v>
       </c>
@@ -1188,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41464</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>41464</v>
       </c>
@@ -1228,7 +1243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41471</v>
       </c>
@@ -1251,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41471</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41471</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>41471</v>
       </c>
@@ -1317,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41509</v>
       </c>
@@ -1343,7 +1358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41509</v>
       </c>
@@ -1363,7 +1378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41515</v>
       </c>
@@ -1386,7 +1401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41515</v>
       </c>
@@ -1406,7 +1421,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>41515</v>
       </c>
@@ -1429,7 +1444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41523</v>
       </c>
@@ -1449,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41523</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41523</v>
       </c>
@@ -1489,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41773</v>
       </c>
@@ -1517,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41773</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41773</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41773</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41773</v>
       </c>
@@ -1629,7 +1644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41773</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>41773</v>
       </c>
@@ -1685,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41773</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41779</v>
       </c>
@@ -1743,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41779</v>
       </c>
@@ -1773,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41779</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41779</v>
       </c>
@@ -1833,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41779</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>41779</v>
       </c>
@@ -1893,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>41779</v>
       </c>
@@ -1923,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41786</v>
       </c>
@@ -1951,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41786</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41786</v>
       </c>
@@ -2010,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41786</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41786</v>
       </c>
@@ -2066,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41786</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>41786</v>
       </c>
@@ -2122,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41802</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41802</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41802</v>
       </c>
@@ -2203,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41802</v>
       </c>
@@ -2230,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>41802</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41802</v>
       </c>
@@ -2285,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41810</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41810</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41810</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41810</v>
       </c>
@@ -2405,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>41810</v>
       </c>
@@ -2438,7 +2453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41810</v>
       </c>
@@ -2471,27 +2486,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1">
-        <v>25</v>
-      </c>
-      <c r="D72">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="I72">
+        <v>0</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -2503,31 +2507,17 @@
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1">
-        <v>25</v>
-      </c>
-      <c r="D73">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -2540,32 +2530,15 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="Q73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1">
-        <v>25</v>
-      </c>
-      <c r="D74">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="I74">
         <v>0</v>
       </c>
@@ -2579,27 +2552,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1">
-        <v>25</v>
-      </c>
-      <c r="D75">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="I75">
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -2610,32 +2572,15 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="Q75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1">
-        <v>25</v>
-      </c>
-      <c r="D76">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F76" s="2"/>
       <c r="I76">
         <v>0</v>
       </c>
@@ -2648,34 +2593,17 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="Q76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>41870</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="1">
-        <v>25</v>
-      </c>
-      <c r="D77">
-        <v>20</v>
+        <v>41817</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="I77">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -2687,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>41870</v>
       </c>
@@ -2701,16 +2629,13 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F78" s="2">
-        <v>0.5625</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -2722,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41870</v>
       </c>
@@ -2739,16 +2664,16 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F79" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I79">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -2760,27 +2685,30 @@
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C80" s="1">
         <v>25</v>
       </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F80" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G80" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -2795,27 +2723,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1">
         <v>25</v>
       </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F81" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -2826,25 +2754,31 @@
       <c r="O81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="Q81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C82" s="1">
         <v>25</v>
       </c>
+      <c r="D82">
+        <v>20</v>
+      </c>
       <c r="E82" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F82" s="2">
-        <v>0.4458333333333333</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -2858,25 +2792,34 @@
       <c r="O82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="Q82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C83" s="1">
         <v>25</v>
       </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
       <c r="E83" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2">
-        <v>0.625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="G83" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I83">
+        <v>6</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -2887,31 +2830,31 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="Q83" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1">
         <v>25</v>
       </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F84" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.5625</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
       </c>
       <c r="I84">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -2923,42 +2866,48 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>41877</v>
+        <v>41870</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1">
         <v>25</v>
       </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F85" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I85">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="Q85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>41877</v>
       </c>
@@ -2969,16 +2918,16 @@
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F86" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I86">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -2990,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>41877</v>
       </c>
@@ -3001,118 +2950,112 @@
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F87" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>41877</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="1">
+        <v>25</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G88" t="s">
         <v>23</v>
       </c>
-      <c r="I87">
-        <v>106</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="3">
-        <v>41885</v>
-      </c>
-      <c r="B88" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="1">
-        <v>75</v>
-      </c>
-      <c r="D88">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>41877</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="1">
+        <v>25</v>
+      </c>
+      <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>41877</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G90" t="s">
         <v>12</v>
       </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88">
-        <v>5</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="3">
-        <v>41885</v>
-      </c>
-      <c r="B89" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="1">
-        <v>75</v>
-      </c>
-      <c r="D89">
-        <v>12</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="2">
-        <v>0.69444444444444453</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="3">
-        <v>41885</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="1">
-        <v>75</v>
-      </c>
-      <c r="D90">
-        <v>12</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="2">
-        <v>0.65138888888888891</v>
-      </c>
-      <c r="G90" t="s">
-        <v>21</v>
+      <c r="I90">
+        <v>91</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -3124,68 +3067,62 @@
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>41885</v>
+        <v>41877</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C91" s="1">
-        <v>75</v>
-      </c>
-      <c r="D91">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F91" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
       </c>
       <c r="I91">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>41885</v>
+        <v>41877</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1">
-        <v>75</v>
-      </c>
-      <c r="D92">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F92" s="2">
-        <v>0.73819444444444438</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
       </c>
       <c r="I92">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -3197,30 +3134,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>41885</v>
+        <v>41877</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C93" s="1">
-        <v>75</v>
-      </c>
-      <c r="D93">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F93" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="G93" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I93">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -3231,11 +3165,8 @@
       <c r="O93">
         <v>0</v>
       </c>
-      <c r="Q93" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>41885</v>
       </c>
@@ -3249,52 +3180,49 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F94" s="2">
-        <v>0.48541666666666666</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>41885</v>
+      </c>
+      <c r="B95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="1">
+        <v>75</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="G95" t="s">
         <v>23</v>
       </c>
-      <c r="I94">
-        <v>78</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="3">
-        <v>41892</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>15</v>
-      </c>
-      <c r="E95" t="s">
-        <v>20</v>
-      </c>
-      <c r="F95" s="2">
-        <v>0.53819444444444442</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
-      </c>
       <c r="I95">
         <v>0</v>
       </c>
@@ -3307,72 +3235,66 @@
       <c r="O95">
         <v>0</v>
       </c>
-      <c r="Q95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>41892</v>
+        <v>41885</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C96" s="1">
+        <v>75</v>
       </c>
       <c r="D96">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F96" s="2">
-        <v>0.46527777777777773</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="G96" t="s">
+        <v>21</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>41885</v>
+      </c>
+      <c r="B97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C97" s="1">
+        <v>75</v>
+      </c>
+      <c r="D97">
         <v>12</v>
       </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="3">
-        <v>41892</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>15</v>
-      </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -3384,27 +3306,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>41892</v>
+        <v>41885</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C98" s="1">
+        <v>75</v>
       </c>
       <c r="D98">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F98" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.73819444444444438</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="I98">
+        <v>27</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -3415,34 +3340,31 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="Q98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>41892</v>
+        <v>41885</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C99" s="1">
+        <v>75</v>
       </c>
       <c r="D99">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F99" s="2">
-        <v>0.5</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -3453,31 +3375,34 @@
       <c r="O99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="Q99" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>41892</v>
+        <v>41885</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="C100" s="1">
+        <v>75</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F100" s="2">
-        <v>0.60069444444444442</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I100">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -3488,8 +3413,11 @@
       <c r="O100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="Q100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>41892</v>
       </c>
@@ -3503,16 +3431,16 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F101" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="G101" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -3524,15 +3452,15 @@
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>41892</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3541,87 +3469,87 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F102" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>41892</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <v>15</v>
       </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="3">
-        <v>41898</v>
-      </c>
-      <c r="B103" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>41892</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
         <v>18</v>
       </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103" s="2">
-        <v>0.49305555555555558</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="A104" s="3">
-        <v>41898</v>
-      </c>
-      <c r="B104" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>18</v>
-      </c>
-      <c r="E104" t="s">
-        <v>22</v>
-      </c>
       <c r="F104" s="2">
-        <v>0.625</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G104" t="s">
         <v>34</v>
       </c>
-      <c r="I104">
-        <v>0</v>
-      </c>
       <c r="K104">
         <v>0</v>
       </c>
@@ -3631,28 +3559,34 @@
       <c r="O104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="Q104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>41898</v>
+        <v>41892</v>
       </c>
       <c r="B105" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F105" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -3663,34 +3597,31 @@
       <c r="O105">
         <v>0</v>
       </c>
-      <c r="Q105" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>41898</v>
+        <v>41892</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2">
-        <v>0.53125</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -3701,34 +3632,31 @@
       <c r="O106">
         <v>0</v>
       </c>
-      <c r="Q106" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>41898</v>
+        <v>41892</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F107" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -3739,31 +3667,34 @@
       <c r="O107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="Q107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>41898</v>
+        <v>41892</v>
       </c>
       <c r="B108" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F108" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -3775,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>41898</v>
       </c>
@@ -3789,16 +3720,16 @@
         <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F109" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -3809,28 +3740,28 @@
       <c r="O109">
         <v>0</v>
       </c>
-      <c r="Q109" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C110">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F110" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -3845,27 +3776,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C111">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F111" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -3876,28 +3807,34 @@
       <c r="O111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="Q111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C112">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
       </c>
       <c r="F112" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -3908,28 +3845,34 @@
       <c r="O112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="Q112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C113">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>18</v>
       </c>
       <c r="E113" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="2">
-        <v>0.71875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G113" t="s">
         <v>12</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -3941,27 +3884,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C114">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>18</v>
       </c>
       <c r="E114" t="s">
         <v>16</v>
       </c>
       <c r="F114" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="G114" t="s">
         <v>12</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -3973,27 +3919,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>41905</v>
+        <v>41898</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C115">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>18</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="G115" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -4004,22 +3953,25 @@
       <c r="O115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="Q115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C116">
         <v>75</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="2">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
@@ -4037,24 +3989,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B117" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C117">
         <v>75</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" t="s">
         <v>22</v>
       </c>
       <c r="F117" s="2">
-        <v>0.62916666666666665</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -4069,24 +4021,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C118">
         <v>75</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>18</v>
+      <c r="E118" t="s">
+        <v>14</v>
       </c>
       <c r="F118" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -4101,21 +4053,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C119">
         <v>75</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>14</v>
+      <c r="E119" t="s">
+        <v>24</v>
       </c>
       <c r="F119" s="2">
-        <v>0.56597222222222221</v>
+        <v>0.71875</v>
       </c>
       <c r="G119" t="s">
         <v>12</v>
@@ -4133,21 +4085,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C120">
         <v>75</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>24</v>
+      <c r="E120" t="s">
+        <v>16</v>
       </c>
       <c r="F120" s="2">
-        <v>0.70833333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G120" t="s">
         <v>12</v>
@@ -4165,24 +4117,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>41913</v>
+        <v>41905</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C121">
         <v>75</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>16</v>
+      <c r="E121" t="s">
+        <v>8</v>
       </c>
       <c r="F121" s="2">
-        <v>0.60277777777777775</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -4197,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>41913</v>
       </c>
@@ -4208,10 +4160,10 @@
         <v>75</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F122" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="G122" t="s">
         <v>12</v>
@@ -4229,238 +4181,209 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>42132</v>
+        <v>41913</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
-      <c r="Q123" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
+        <v>53</v>
+      </c>
+      <c r="C123">
+        <v>75</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="G123" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>42132</v>
+        <v>41913</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
-      </c>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="C124">
+        <v>75</v>
+      </c>
       <c r="E124" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F124" s="6"/>
-      <c r="G124" s="6"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6">
-        <v>0</v>
-      </c>
-      <c r="J124">
+        <v>18</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
       <c r="M124">
         <v>0</v>
       </c>
-      <c r="N124">
-        <v>0</v>
-      </c>
       <c r="O124">
         <v>0</v>
       </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>42132</v>
+        <v>41913</v>
       </c>
       <c r="B125" t="s">
-        <v>71</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125">
+        <v>75</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="G125" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B126" t="s">
+        <v>53</v>
+      </c>
+      <c r="C126">
+        <v>75</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G126" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127">
+        <v>75</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="G127" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>41913</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128">
+        <v>75</v>
+      </c>
+      <c r="E128" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="6"/>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
-      <c r="A126" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B126" t="s">
-        <v>71</v>
-      </c>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6">
-        <v>0</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>0</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
-      <c r="A127" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B127" t="s">
-        <v>71</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6">
-        <v>0</v>
-      </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>0</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B128" t="s">
-        <v>71</v>
-      </c>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="6"/>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6">
-        <v>0</v>
-      </c>
-      <c r="J128">
+      <c r="F128" s="2">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="G128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128">
         <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
       <c r="M128">
         <v>0</v>
       </c>
-      <c r="N128">
-        <v>0</v>
-      </c>
       <c r="O128">
         <v>0</v>
       </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>42132</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -4489,18 +4412,21 @@
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:17">
+      <c r="Q129" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>53</v>
+        <v>42132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>70</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="5" t="s">
-        <v>47</v>
+      <c r="E130" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -4530,17 +4456,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>53</v>
+        <v>42132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>70</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="6" t="s">
-        <v>8</v>
+      <c r="E131" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -4570,17 +4496,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>53</v>
+        <v>42132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>70</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -4610,17 +4536,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>53</v>
+        <v>42132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>70</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -4650,17 +4576,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>42139</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>53</v>
+        <v>42132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>70</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -4690,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>42139</v>
       </c>
@@ -4700,7 +4626,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -4730,17 +4656,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>42152</v>
+        <v>42139</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="5" t="s">
-        <v>47</v>
+      <c r="E136" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -4770,17 +4696,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>42152</v>
+        <v>42139</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="6" t="s">
-        <v>8</v>
+      <c r="E137" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -4810,9 +4736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>42152</v>
+        <v>42139</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>53</v>
@@ -4820,7 +4746,7 @@
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -4850,9 +4776,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>42152</v>
+        <v>42139</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>53</v>
@@ -4860,7 +4786,7 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -4890,9 +4816,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>42152</v>
+        <v>42139</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>53</v>
@@ -4900,7 +4826,7 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -4929,11 +4855,8 @@
       <c r="P140">
         <v>0</v>
       </c>
-      <c r="Q140" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>42152</v>
       </c>
@@ -4943,7 +4866,7 @@
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -4973,29 +4896,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="E142" s="5" t="s">
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F142" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="G142" t="s">
-        <v>75</v>
-      </c>
-      <c r="H142" t="s">
-        <v>77</v>
-      </c>
-      <c r="I142">
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6">
         <v>0</v>
       </c>
       <c r="J142">
@@ -5020,29 +4936,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F143" s="2">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="G143" t="s">
-        <v>75</v>
-      </c>
-      <c r="H143" t="s">
-        <v>77</v>
-      </c>
-      <c r="I143">
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6">
         <v>0</v>
       </c>
       <c r="J143">
@@ -5067,29 +4976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
       <c r="E144" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F144" s="2">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="G144" t="s">
-        <v>76</v>
-      </c>
-      <c r="H144" t="s">
-        <v>77</v>
-      </c>
-      <c r="I144">
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6">
         <v>0</v>
       </c>
       <c r="J144">
@@ -5114,29 +5016,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
+      <c r="C145" s="6"/>
+      <c r="D145" s="6"/>
       <c r="E145" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="2">
-        <v>0.48402777777777778</v>
-      </c>
-      <c r="G145" t="s">
-        <v>75</v>
-      </c>
-      <c r="H145" t="s">
-        <v>77</v>
-      </c>
-      <c r="I145">
+        <v>24</v>
+      </c>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6">
         <v>0</v>
       </c>
       <c r="J145">
@@ -5160,37 +5055,33 @@
       <c r="P145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:17">
+      <c r="Q145" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>42160</v>
+        <v>42152</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
       <c r="E146" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="2">
-        <v>0.56736111111111109</v>
-      </c>
-      <c r="G146" t="s">
-        <v>75</v>
-      </c>
-      <c r="H146" t="s">
-        <v>77</v>
-      </c>
-      <c r="I146">
+        <v>16</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6">
         <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
-      <c r="K146" t="s">
-        <v>74</v>
+      <c r="K146">
+        <v>0</v>
       </c>
       <c r="L146">
         <v>0</v>
@@ -5207,11 +5098,8 @@
       <c r="P146">
         <v>0</v>
       </c>
-      <c r="Q146" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>42160</v>
       </c>
@@ -5222,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="F147" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="G147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H147" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5258,27 +5146,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C148">
-        <v>75</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
       </c>
       <c r="F148" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -5287,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -5304,31 +5192,28 @@
       <c r="P148">
         <v>0</v>
       </c>
-      <c r="Q148" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C149">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F149" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="G149" t="s">
         <v>75</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5340,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -5355,27 +5240,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C150">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F150" s="2">
-        <v>0.5625</v>
+        <v>0.48402777777777778</v>
       </c>
       <c r="G150" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5402,27 +5287,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C151">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F151" s="2">
-        <v>0.57361111111111118</v>
+        <v>0.56736111111111109</v>
       </c>
       <c r="G151" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5430,8 +5315,8 @@
       <c r="J151">
         <v>0</v>
       </c>
-      <c r="K151">
-        <v>0</v>
+      <c r="K151" t="s">
+        <v>73</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -5448,25 +5333,28 @@
       <c r="P151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:17">
+      <c r="Q151" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>42167</v>
+        <v>42160</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C152">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F152" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G152" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H152" t="s">
         <v>77</v>
@@ -5496,247 +5384,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>42167</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C153">
         <v>75</v>
       </c>
       <c r="E153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="G153" t="s">
+        <v>74</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154">
+        <v>75</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>76</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155">
+        <v>75</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G155" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" t="s">
+        <v>76</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156">
+        <v>75</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>76</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157">
+        <v>75</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F157" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="G157" t="s">
+        <v>74</v>
+      </c>
+      <c r="H157" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>42167</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158">
+        <v>75</v>
+      </c>
+      <c r="E158" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F158" s="2">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G153" t="s">
-        <v>75</v>
-      </c>
-      <c r="H153" t="s">
-        <v>80</v>
-      </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-      <c r="N153">
-        <v>0</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154" s="3">
-        <v>42174</v>
-      </c>
-      <c r="B154" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154">
-        <v>50</v>
-      </c>
-      <c r="E154" t="s">
-        <v>83</v>
-      </c>
-      <c r="G154" t="s">
-        <v>75</v>
-      </c>
-      <c r="H154" t="s">
-        <v>77</v>
-      </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-      <c r="N154">
-        <v>0</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="3">
-        <v>42174</v>
-      </c>
-      <c r="B155" t="s">
-        <v>82</v>
-      </c>
-      <c r="C155">
-        <v>50</v>
-      </c>
-      <c r="E155" t="s">
-        <v>84</v>
-      </c>
-      <c r="G155" t="s">
-        <v>75</v>
-      </c>
-      <c r="H155" t="s">
-        <v>85</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-      <c r="N155">
-        <v>0</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="3">
-        <v>42174</v>
-      </c>
-      <c r="B156" t="s">
-        <v>82</v>
-      </c>
-      <c r="C156">
-        <v>50</v>
-      </c>
-      <c r="E156" t="s">
-        <v>86</v>
-      </c>
-      <c r="G156" t="s">
-        <v>75</v>
-      </c>
-      <c r="H156" t="s">
-        <v>85</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="N156">
-        <v>0</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="3">
-        <v>42174</v>
-      </c>
-      <c r="B157" t="s">
-        <v>82</v>
-      </c>
-      <c r="C157">
-        <v>50</v>
-      </c>
-      <c r="E157" t="s">
-        <v>87</v>
-      </c>
-      <c r="G157" t="s">
-        <v>75</v>
-      </c>
-      <c r="H157" t="s">
-        <v>85</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="N157">
-        <v>0</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="3">
-        <v>42174</v>
-      </c>
-      <c r="B158" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158">
-        <v>50</v>
-      </c>
-      <c r="E158" t="s">
-        <v>88</v>
-      </c>
       <c r="G158" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5763,24 +5669,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>42174</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C159">
         <v>50</v>
       </c>
       <c r="E159" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G159" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -5806,78 +5712,70 @@
       <c r="P159">
         <v>0</v>
       </c>
-      <c r="Q159" s="7"/>
-    </row>
-    <row r="160" spans="1:17">
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>42181</v>
+        <v>42174</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E160" t="s">
         <v>83</v>
       </c>
-      <c r="F160" s="2">
-        <v>0.41041666666666665</v>
-      </c>
       <c r="G160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H160" t="s">
+        <v>84</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>42174</v>
+      </c>
+      <c r="B161" t="s">
+        <v>81</v>
+      </c>
+      <c r="C161">
+        <v>50</v>
+      </c>
+      <c r="E161" t="s">
         <v>85</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="N160">
-        <v>0</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="7"/>
-    </row>
-    <row r="161" spans="1:16">
-      <c r="A161" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B161" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="G161" t="s">
+        <v>74</v>
+      </c>
+      <c r="H161" t="s">
         <v>84</v>
       </c>
-      <c r="F161" s="2">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="G161" t="s">
-        <v>75</v>
-      </c>
-      <c r="H161" t="s">
-        <v>85</v>
-      </c>
       <c r="I161">
         <v>0</v>
       </c>
@@ -5903,27 +5801,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>42181</v>
+        <v>42174</v>
       </c>
       <c r="B162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E162" t="s">
         <v>86</v>
       </c>
-      <c r="F162" s="2">
-        <v>0.48888888888888887</v>
-      </c>
       <c r="G162" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5950,27 +5845,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>42181</v>
+        <v>42174</v>
       </c>
       <c r="B163" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E163" t="s">
         <v>87</v>
       </c>
-      <c r="F163" s="2">
-        <v>0.50555555555555554</v>
-      </c>
       <c r="G163" t="s">
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5997,28 +5889,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>42181</v>
+        <v>42174</v>
       </c>
       <c r="B164" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E164" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="2">
-        <v>0.52986111111111112</v>
-      </c>
       <c r="G164" t="s">
+        <v>74</v>
+      </c>
+      <c r="H164" t="s">
         <v>76</v>
       </c>
-      <c r="H164" t="s">
-        <v>77</v>
-      </c>
       <c r="I164">
         <v>0</v>
       </c>
@@ -6043,28 +5932,29 @@
       <c r="P164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:16">
+      <c r="Q164" s="7"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>42181</v>
       </c>
       <c r="B165" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
         <v>82</v>
       </c>
-      <c r="C165">
-        <v>0</v>
-      </c>
-      <c r="E165" t="s">
-        <v>89</v>
-      </c>
       <c r="F165" s="2">
-        <v>0.10972222222222222</v>
+        <v>0.41041666666666665</v>
       </c>
       <c r="G165" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H165" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -6090,63 +5980,292 @@
       <c r="P165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:16">
+      <c r="Q165" s="7"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42181</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
+        <v>83</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="G166" t="s">
+        <v>74</v>
+      </c>
+      <c r="H166" t="s">
+        <v>84</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B167" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>85</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="G167" t="s">
+        <v>74</v>
+      </c>
+      <c r="H167" t="s">
+        <v>84</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B168" t="s">
+        <v>81</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>86</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+      <c r="H168" t="s">
+        <v>76</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B169" t="s">
+        <v>81</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>87</v>
+      </c>
+      <c r="F169" s="2">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>76</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B170" t="s">
+        <v>81</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>88</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="G170" t="s">
+        <v>89</v>
+      </c>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>42181</v>
+      </c>
+      <c r="B171" t="s">
+        <v>81</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>90</v>
+      </c>
+      <c r="F171" s="2">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
         <v>91</v>
       </c>
-      <c r="F166" s="2">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="G166" t="s">
-        <v>75</v>
-      </c>
-      <c r="H166" t="s">
-        <v>92</v>
-      </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166">
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q122">
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="11"/>
-    <filterColumn colId="13"/>
-    <filterColumn colId="15"/>
-  </autoFilter>
+  <autoFilter ref="A1:Q128"/>
   <sortState ref="A2:L122">
     <sortCondition ref="A1"/>
   </sortState>
@@ -6155,24 +6274,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VisualSurvey_RImport.xlsx
+++ b/VisualSurvey_RImport.xlsx
@@ -17,14 +17,87 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$241</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>annika putt</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>annika
+Good, moderate, poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>annika putt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Good, moderate, low, dry</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>annika putt:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+If the cell is blank it generally means NA....0 means counted but not seen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="100">
   <si>
     <t>date</t>
   </si>
@@ -62,9 +135,6 @@
     <t>girl creek</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>walked to road 0517173/5637578</t>
   </si>
   <si>
@@ -83,15 +153,9 @@
     <t>hrb</t>
   </si>
   <si>
-    <t>very turbid</t>
-  </si>
-  <si>
     <t>gbb</t>
   </si>
   <si>
-    <t>0m</t>
-  </si>
-  <si>
     <t>gun creek</t>
   </si>
   <si>
@@ -128,9 +192,6 @@
     <t>no fish rolling at the confluence</t>
   </si>
   <si>
-    <t>no vis</t>
-  </si>
-  <si>
     <t>didn’t see any rolling</t>
   </si>
   <si>
@@ -206,12 +267,6 @@
     <t>ES/AJ/SP</t>
   </si>
   <si>
-    <t>viz (good, fair, poor)</t>
-  </si>
-  <si>
-    <t>discharge (high, mod, low, dry)</t>
-  </si>
-  <si>
     <t>kocount.below</t>
   </si>
   <si>
@@ -236,6 +291,9 @@
     <t>bsucount.above</t>
   </si>
   <si>
+    <t>Started separating count above and below full pool elevation, which for me was the treeline</t>
+  </si>
+  <si>
     <t>ap/cj</t>
   </si>
   <si>
@@ -245,9 +303,6 @@
     <t>Almost no below full pool left due to the heigth of the reservoir.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -257,9 +312,6 @@
     <t>high</t>
   </si>
   <si>
-    <t>moderate</t>
-  </si>
-  <si>
     <t>AA/KS</t>
   </si>
   <si>
@@ -272,37 +324,79 @@
     <t>AA,SP</t>
   </si>
   <si>
-    <t>truax</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
     <t>mod</t>
   </si>
   <si>
-    <t>mcdonald</t>
-  </si>
-  <si>
-    <t>sucker</t>
-  </si>
-  <si>
-    <t>gun</t>
-  </si>
-  <si>
-    <t>marshall</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>jones</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>Added for plotting purposes</t>
+    <t>RJ,SP</t>
+  </si>
+  <si>
+    <t>Pool is so high that there is no below full pool elevation</t>
+  </si>
+  <si>
+    <t>SP,RJ</t>
+  </si>
+  <si>
+    <t>1 redd 10 m up from the bridge; pool to full for below full</t>
+  </si>
+  <si>
+    <t>2 mort whitefish at the creek mouth; pool too high for below full</t>
+  </si>
+  <si>
+    <t>last part of the walk not finished because of a wasp nest; 4 redds 50 m up the creek</t>
+  </si>
+  <si>
+    <t>Pool is so high that there is no below full pool elevation; almost to the falls</t>
+  </si>
+  <si>
+    <t>fish rolling at the surface</t>
+  </si>
+  <si>
+    <t>1 mort</t>
+  </si>
+  <si>
+    <t>2 mort</t>
+  </si>
+  <si>
+    <t>Debris possibly blocking the bottom half of the stream (not really sure what this comment was supposed to mean)</t>
+  </si>
+  <si>
+    <t>Mud slide blocking the road prevented acces to Truax</t>
+  </si>
+  <si>
+    <t>ES,SP</t>
+  </si>
+  <si>
+    <t>2 ko morts</t>
+  </si>
+  <si>
+    <t>27 ko morts</t>
+  </si>
+  <si>
+    <t>rolling under the bridge</t>
+  </si>
+  <si>
+    <t>3 morts</t>
+  </si>
+  <si>
+    <t>2 morts</t>
+  </si>
+  <si>
+    <t>7 morts</t>
+  </si>
+  <si>
+    <t>SP,JD</t>
+  </si>
+  <si>
+    <t>SP,AA</t>
+  </si>
+  <si>
+    <t>viz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discharge </t>
   </si>
 </sst>
 </file>
@@ -312,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +419,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -347,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -356,6 +470,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,12 +777,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K146" sqref="K146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,34 +824,34 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
         <v>60</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>69</v>
       </c>
       <c r="Q1" t="s">
         <v>6</v>
@@ -744,18 +862,18 @@
         <v>41423</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
@@ -764,22 +882,22 @@
         <v>41423</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -787,22 +905,22 @@
         <v>41423</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -810,18 +928,18 @@
         <v>41423</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
@@ -830,18 +948,18 @@
         <v>41430</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <v>48</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
@@ -850,18 +968,18 @@
         <v>41430</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
@@ -870,18 +988,18 @@
         <v>41430</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="O8">
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
     </row>
@@ -890,18 +1008,18 @@
         <v>41430</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>26</v>
       </c>
     </row>
@@ -910,21 +1028,21 @@
         <v>41436</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G10">
         <v>4.8</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="O10">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
@@ -933,18 +1051,18 @@
         <v>41436</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="K11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="O11">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -953,18 +1071,18 @@
         <v>41436</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>2</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="O12">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
@@ -973,18 +1091,18 @@
         <v>41436</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>45</v>
       </c>
     </row>
@@ -993,18 +1111,18 @@
         <v>41443</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
     </row>
@@ -1013,25 +1131,25 @@
         <v>41443</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>30.2</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1039,25 +1157,25 @@
         <v>41443</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G16">
         <v>4.7</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1065,21 +1183,21 @@
         <v>41443</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17">
         <v>25.2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>188</v>
       </c>
     </row>
@@ -1088,18 +1206,18 @@
         <v>41457</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+        <v>48</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
@@ -1108,18 +1226,18 @@
         <v>41457</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+        <v>43</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
@@ -1128,18 +1246,18 @@
         <v>41457</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
@@ -1148,18 +1266,18 @@
         <v>41457</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>57</v>
       </c>
     </row>
@@ -1168,18 +1286,18 @@
         <v>41464</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+        <v>48</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>0</v>
       </c>
     </row>
@@ -1188,18 +1306,18 @@
         <v>41464</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>0</v>
       </c>
     </row>
@@ -1208,18 +1326,18 @@
         <v>41464</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="O24">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>0</v>
       </c>
     </row>
@@ -1228,18 +1346,18 @@
         <v>41464</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>70</v>
       </c>
     </row>
@@ -1248,21 +1366,21 @@
         <v>41471</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G26">
         <v>38</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="O26">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>0</v>
       </c>
     </row>
@@ -1271,21 +1389,21 @@
         <v>41471</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>29.4</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27">
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>0</v>
       </c>
     </row>
@@ -1294,21 +1412,21 @@
         <v>41471</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G28">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="O28">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>0</v>
       </c>
     </row>
@@ -1317,18 +1435,18 @@
         <v>41471</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>0</v>
       </c>
     </row>
@@ -1337,25 +1455,25 @@
         <v>41509</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G30">
         <v>1.28</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="O30">
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1363,19 +1481,19 @@
         <v>41509</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="O31">
+        <v>17</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1383,22 +1501,22 @@
         <v>41515</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="O32">
+        <v>19</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1406,19 +1524,19 @@
         <v>41515</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="O33">
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1426,22 +1544,22 @@
         <v>41515</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="O34">
+        <v>15</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1449,18 +1567,18 @@
         <v>41523</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="P35">
         <v>0</v>
       </c>
     </row>
@@ -1469,18 +1587,18 @@
         <v>41523</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36">
+        <v>13</v>
+      </c>
+      <c r="J36">
         <v>5</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="O36">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="P36">
         <v>0</v>
       </c>
     </row>
@@ -1489,18 +1607,18 @@
         <v>41523</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
         <v>9</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="O37">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <v>0</v>
       </c>
     </row>
@@ -1509,26 +1627,26 @@
         <v>41773</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1"/>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="O38">
+        <v>69</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="P38">
         <v>0</v>
       </c>
     </row>
@@ -1537,7 +1655,7 @@
         <v>41773</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1"/>
       <c r="E39" t="s">
@@ -1545,18 +1663,18 @@
       </c>
       <c r="F39" s="2"/>
       <c r="G39" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="O39">
+        <v>69</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="P39">
         <v>0</v>
       </c>
     </row>
@@ -1565,26 +1683,26 @@
         <v>41773</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1"/>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="O40">
+        <v>69</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>0</v>
       </c>
     </row>
@@ -1593,26 +1711,26 @@
         <v>41773</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1"/>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="O41">
+        <v>69</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="P41">
         <v>0</v>
       </c>
     </row>
@@ -1621,26 +1739,26 @@
         <v>41773</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1"/>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="O42">
+        <v>69</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="P42">
         <v>0</v>
       </c>
     </row>
@@ -1649,26 +1767,26 @@
         <v>41773</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1"/>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="K43">
+        <v>68</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>8</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>3</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>0</v>
       </c>
     </row>
@@ -1677,26 +1795,26 @@
         <v>41773</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1"/>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="O44">
+        <v>69</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="P44">
         <v>0</v>
       </c>
     </row>
@@ -1705,26 +1823,26 @@
         <v>41773</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1"/>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="O45">
+        <v>69</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="P45">
         <v>0</v>
       </c>
     </row>
@@ -1733,28 +1851,28 @@
         <v>41779</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1">
         <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="O46">
+        <v>69</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="P46">
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1881,7 @@
         <v>41779</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1">
         <v>30</v>
@@ -1773,18 +1891,18 @@
       </c>
       <c r="F47" s="2"/>
       <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="K47">
+        <v>68</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47">
         <v>2</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>0</v>
       </c>
     </row>
@@ -1793,28 +1911,28 @@
         <v>41779</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1">
         <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="O48">
+        <v>69</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>0</v>
       </c>
     </row>
@@ -1823,28 +1941,28 @@
         <v>41779</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1">
         <v>30</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49">
+        <v>69</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="P49">
         <v>0</v>
       </c>
     </row>
@@ -1853,28 +1971,28 @@
         <v>41779</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1">
         <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="O50">
+        <v>68</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="P50">
         <v>0</v>
       </c>
     </row>
@@ -1883,28 +2001,28 @@
         <v>41779</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1">
         <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="K51">
+        <v>68</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51">
         <v>1</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="O51">
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>0</v>
       </c>
     </row>
@@ -1913,28 +2031,28 @@
         <v>41779</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1">
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="O52">
+        <v>68</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="P52">
         <v>0</v>
       </c>
     </row>
@@ -1943,26 +2061,26 @@
         <v>41786</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1"/>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="O53">
+        <v>69</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +2089,7 @@
         <v>41786</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1"/>
       <c r="E54" t="s">
@@ -1979,22 +2097,22 @@
       </c>
       <c r="F54" s="2"/>
       <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="K54">
+        <v>68</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="O54">
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="P54">
         <v>0</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
@@ -2002,26 +2120,26 @@
         <v>41786</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1"/>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" t="s">
-        <v>19</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="O55">
+        <v>69</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>0</v>
       </c>
     </row>
@@ -2030,26 +2148,26 @@
         <v>41786</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1"/>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="O56">
+        <v>69</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="P56">
         <v>0</v>
       </c>
     </row>
@@ -2058,26 +2176,26 @@
         <v>41786</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1"/>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s">
-        <v>12</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="O57">
+        <v>68</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="P57">
         <v>0</v>
       </c>
     </row>
@@ -2086,26 +2204,26 @@
         <v>41786</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1"/>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="O58">
+        <v>68</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>0</v>
       </c>
     </row>
@@ -2114,26 +2232,26 @@
         <v>41786</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1"/>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="O59">
+        <v>68</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="P59">
         <v>0</v>
       </c>
     </row>
@@ -2142,25 +2260,25 @@
         <v>41802</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="K60">
+        <v>68</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>2</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="O60">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="P60">
         <v>0</v>
       </c>
     </row>
@@ -2169,25 +2287,25 @@
         <v>41802</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s">
-        <v>19</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="O61">
+        <v>69</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>0</v>
       </c>
     </row>
@@ -2196,25 +2314,25 @@
         <v>41802</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="O62">
+        <v>68</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="P62">
         <v>0</v>
       </c>
     </row>
@@ -2223,25 +2341,25 @@
         <v>41802</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="K63">
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>7</v>
       </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="O63">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>0</v>
       </c>
     </row>
@@ -2250,25 +2368,25 @@
         <v>41802</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="O64">
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="P64">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2395,7 @@
         <v>41802</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1"/>
       <c r="E65" t="s">
@@ -2285,18 +2403,18 @@
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="O65">
+        <v>68</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="P65">
         <v>0</v>
       </c>
     </row>
@@ -2305,7 +2423,7 @@
         <v>41810</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>95</v>
@@ -2315,18 +2433,18 @@
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s">
-        <v>12</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="M66">
+        <v>68</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="N66">
         <v>1</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>0</v>
       </c>
     </row>
@@ -2335,28 +2453,28 @@
         <v>41810</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s">
-        <v>19</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="O67">
+        <v>69</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>0</v>
       </c>
     </row>
@@ -2365,28 +2483,28 @@
         <v>41810</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C68">
         <v>95</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="K68">
+        <v>68</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="L68">
         <v>2</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="O68">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="P68">
         <v>0</v>
       </c>
     </row>
@@ -2395,28 +2513,28 @@
         <v>41810</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C69">
         <v>95</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="K69">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69">
         <v>11</v>
       </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="O69">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="P69">
         <v>0</v>
       </c>
     </row>
@@ -2425,32 +2543,32 @@
         <v>41810</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C70">
         <v>95</v>
       </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="O70">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="P70">
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
@@ -2458,7 +2576,7 @@
         <v>41810</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C71">
         <v>95</v>
@@ -2468,150 +2586,237 @@
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="K71">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="L71">
         <v>1</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="O71">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="1">
+        <v>25</v>
+      </c>
+      <c r="D72">
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="2"/>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="O72">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G72" t="s">
+        <v>69</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="P72">
         <v>0</v>
       </c>
       <c r="Q72" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="G73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="1">
+        <v>25</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="O74">
+        <v>19</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="P74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="1">
+        <v>25</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G75" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="1">
+        <v>25</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="G76" t="s">
+        <v>68</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>41817</v>
+        <v>41870</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="1">
+        <v>25</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="O77">
+        <v>21</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G77" t="s">
+        <v>68</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="P77">
         <v>0</v>
       </c>
     </row>
@@ -2629,25 +2834,28 @@
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F78" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="O78">
+        <v>68</v>
+      </c>
+      <c r="J78">
+        <v>22</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="P78">
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
@@ -2664,247 +2872,223 @@
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F79" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="O79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>41</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="P79">
         <v>0</v>
       </c>
       <c r="Q79" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C80" s="1">
         <v>25</v>
       </c>
-      <c r="D80">
-        <v>20</v>
-      </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F80" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="O80">
+        <v>69</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="P80">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81" s="1">
         <v>25</v>
       </c>
-      <c r="D81">
-        <v>20</v>
-      </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="G81" t="s">
-        <v>19</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C82" s="1">
         <v>25</v>
       </c>
-      <c r="D82">
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="G82" t="s">
         <v>20</v>
       </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="2">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>15</v>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C83" s="1">
         <v>25</v>
       </c>
-      <c r="D83">
-        <v>20</v>
-      </c>
       <c r="E83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G83" t="s">
+        <v>69</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
         <v>24</v>
-      </c>
-      <c r="F83" s="2">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83">
-        <v>6</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1">
         <v>25</v>
       </c>
-      <c r="D84">
-        <v>20</v>
-      </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F84" s="2">
-        <v>0.5625</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84">
-        <v>22</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="O84">
+        <v>68</v>
+      </c>
+      <c r="J84">
+        <v>91</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="P84">
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>41870</v>
+        <v>41877</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C85" s="1">
         <v>25</v>
       </c>
-      <c r="D85">
-        <v>20</v>
-      </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F85" s="2">
-        <v>0.48958333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85">
-        <v>41</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="J85">
+        <v>26</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
@@ -2912,30 +3096,30 @@
         <v>41877</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C86" s="1">
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F86" s="2">
-        <v>0.62986111111111109</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>0</v>
-      </c>
-      <c r="O86">
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <v>33</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="P86">
         <v>0</v>
       </c>
     </row>
@@ -2944,226 +3128,244 @@
         <v>41877</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C87" s="1">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F87" s="2">
-        <v>0.51666666666666672</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="O87">
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <v>106</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="P87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D88">
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F88" s="2">
-        <v>0.4458333333333333</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="O88">
+        <v>68</v>
+      </c>
+      <c r="J88">
+        <v>5</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="P88">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
       </c>
       <c r="C89" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F89" s="2">
-        <v>0.625</v>
+        <v>0.69444444444444453</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
       <c r="C90" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F90" s="2">
-        <v>0.4861111111111111</v>
+        <v>0.65138888888888891</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90">
-        <v>91</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="O90">
+        <v>69</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="P90">
         <v>0</v>
       </c>
       <c r="Q90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
       <c r="C91" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D91">
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F91" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91">
-        <v>26</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="O91">
+        <v>68</v>
+      </c>
+      <c r="J91">
+        <v>19</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="P91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
       <c r="C92" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
       </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F92" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.73819444444444438</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92">
-        <v>33</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="O92">
+        <v>68</v>
+      </c>
+      <c r="J92">
+        <v>27</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>41877</v>
+        <v>41885</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
       </c>
       <c r="C93" s="1">
-        <v>25</v>
+        <v>75</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F93" s="2">
-        <v>0.58680555555555558</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="I93">
-        <v>106</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="J93">
+        <v>16</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
@@ -3171,7 +3373,7 @@
         <v>41885</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C94" s="1">
         <v>75</v>
@@ -3180,241 +3382,244 @@
         <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F94" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.48541666666666666</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94">
-        <v>5</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J94">
+        <v>78</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
-      </c>
-      <c r="C95" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F95" s="2">
-        <v>0.69444444444444453</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="G95" t="s">
-        <v>23</v>
-      </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F96" s="2">
-        <v>0.65138888888888891</v>
+        <v>0.46527777777777773</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="O96">
+        <v>68</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
-      </c>
-      <c r="C97" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F97" s="2">
-        <v>0.57291666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="G97" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97">
-        <v>19</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="O97">
+        <v>69</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="P97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F98" s="2">
-        <v>0.73819444444444438</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G98" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98">
-        <v>27</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
-      </c>
-      <c r="C99" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F99" s="2">
-        <v>0.61458333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99">
-        <v>16</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>30</v>
+        <v>68</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>41885</v>
+        <v>41892</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
-      </c>
-      <c r="C100" s="1">
-        <v>75</v>
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F100" s="2">
-        <v>0.48541666666666666</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="I100">
-        <v>78</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="J100">
+        <v>16</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
@@ -3431,28 +3636,28 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F101" s="2">
-        <v>0.53819444444444442</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="O101">
+        <v>68</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="P101">
         <v>0</v>
       </c>
       <c r="Q101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
@@ -3460,7 +3665,7 @@
         <v>41892</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3469,240 +3674,237 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2">
-        <v>0.46527777777777773</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>32</v>
+        <v>9</v>
+      </c>
+      <c r="J102">
+        <v>15</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F103" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="O103">
+        <v>68</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="P103">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F104" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>50</v>
+        <v>69</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F105" s="2">
-        <v>0.5</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105">
-        <v>3</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F106" s="2">
-        <v>0.60069444444444442</v>
+        <v>0.53125</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106">
-        <v>16</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F107" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I107">
-        <v>7</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>41892</v>
+        <v>41898</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
+        <v>18</v>
+      </c>
+      <c r="E108" t="s">
         <v>15</v>
       </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
       <c r="F108" s="2">
-        <v>0.40972222222222227</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108">
-        <v>15</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="O108">
+        <v>68</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="P108">
         <v>0</v>
       </c>
     </row>
@@ -3711,7 +3913,7 @@
         <v>41898</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3720,432 +3922,411 @@
         <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F109" s="2">
-        <v>0.49305555555555558</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F110" s="2">
-        <v>0.625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="O110">
+        <v>68</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="P110">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F111" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112" s="2">
-        <v>0.53125</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F113" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.71875</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="O113">
+        <v>68</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="P113">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F114" s="2">
-        <v>0.54861111111111105</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114">
-        <v>3</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="O114">
+        <v>68</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="P114">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>41898</v>
+        <v>41905</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="2">
-        <v>0.4548611111111111</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C116">
         <v>75</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F116" s="2">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="O116">
+        <v>68</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="P116">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C117">
         <v>75</v>
       </c>
-      <c r="E117" t="s">
-        <v>22</v>
+      <c r="E117" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F117" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.62916666666666665</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="O117">
+        <v>69</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="P117">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C118">
         <v>75</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F118" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="O118">
+        <v>69</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="P118">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C119">
         <v>75</v>
       </c>
-      <c r="E119" t="s">
-        <v>24</v>
+      <c r="E119" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="F119" s="2">
-        <v>0.71875</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="O119">
+        <v>68</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="P119">
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C120">
         <v>75</v>
       </c>
-      <c r="E120" t="s">
-        <v>16</v>
+      <c r="E120" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F120" s="2">
-        <v>0.60416666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="O120">
+        <v>68</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="P120">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>41905</v>
+        <v>41913</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C121">
         <v>75</v>
       </c>
-      <c r="E121" t="s">
-        <v>8</v>
+      <c r="E121" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F121" s="2">
-        <v>0.45833333333333331</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="O121">
+        <v>68</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="P121">
         <v>0</v>
       </c>
     </row>
@@ -4154,222 +4335,251 @@
         <v>41913</v>
       </c>
       <c r="B122" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C122">
         <v>75</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F122" s="2">
-        <v>0.5</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="O122">
+        <v>68</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="P122">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123">
-        <v>75</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F123" s="2">
-        <v>0.62916666666666665</v>
-      </c>
-      <c r="G123" t="s">
-        <v>34</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="Q123" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B124" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
       <c r="E124" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="2">
-        <v>0.61805555555555558</v>
-      </c>
-      <c r="G124" t="s">
-        <v>34</v>
-      </c>
-      <c r="I124">
+        <v>43</v>
+      </c>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
       </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
       <c r="M124">
         <v>0</v>
       </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
       <c r="O124">
         <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B125" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125">
-        <v>75</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" s="2">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="G125" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125">
+        <v>65</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
         <v>0</v>
       </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
       <c r="M125">
         <v>0</v>
       </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
       <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B126" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="2">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126">
+        <v>11</v>
+      </c>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6">
+        <v>0</v>
+      </c>
+      <c r="J126">
         <v>0</v>
       </c>
       <c r="K126">
         <v>0</v>
       </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
       <c r="M126">
         <v>0</v>
       </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
       <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B127" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
       <c r="E127" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="2">
-        <v>0.60277777777777775</v>
-      </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127">
+        <v>13</v>
+      </c>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6">
+        <v>0</v>
+      </c>
+      <c r="J127">
         <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
       </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
       <c r="M127">
         <v>0</v>
       </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
       <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>41913</v>
+        <v>42132</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128">
-        <v>75</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
       <c r="E128" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F128" s="2">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128">
+        <v>21</v>
+      </c>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6">
+        <v>0</v>
+      </c>
+      <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
       </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
       <c r="M128">
         <v>0</v>
       </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
       <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
         <v>0</v>
       </c>
     </row>
@@ -4378,12 +4588,12 @@
         <v>42132</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -4412,21 +4622,18 @@
       <c r="P129">
         <v>0</v>
       </c>
-      <c r="Q129" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B130" t="s">
-        <v>70</v>
+        <v>42139</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="6" t="s">
-        <v>8</v>
+      <c r="E130" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -4458,15 +4665,15 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>70</v>
+        <v>42139</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
-      <c r="E131" s="5" t="s">
-        <v>11</v>
+      <c r="E131" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -4498,15 +4705,15 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>70</v>
+        <v>42139</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -4538,15 +4745,15 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>70</v>
+        <v>42139</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -4578,15 +4785,15 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>42132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>70</v>
+        <v>42139</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -4621,12 +4828,12 @@
         <v>42139</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -4658,15 +4865,15 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>42139</v>
+        <v>42152</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="6" t="s">
-        <v>8</v>
+      <c r="E136" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -4698,15 +4905,15 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>42139</v>
+        <v>42152</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
-      <c r="E137" s="5" t="s">
-        <v>11</v>
+      <c r="E137" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -4738,15 +4945,15 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>42139</v>
+        <v>42152</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -4778,15 +4985,15 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>42139</v>
+        <v>42152</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
@@ -4818,15 +5025,15 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>42139</v>
+        <v>42152</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -4855,18 +5062,21 @@
       <c r="P140">
         <v>0</v>
       </c>
+      <c r="Q140" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>42152</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -4898,20 +5108,27 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>42152</v>
+        <v>42160</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="E142" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6">
+      <c r="F142" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G142" t="s">
+        <v>68</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
         <v>0</v>
       </c>
       <c r="J142">
@@ -4938,20 +5155,27 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>42152</v>
+        <v>42160</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
         <v>11</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6">
+      <c r="F143" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
+      </c>
+      <c r="H143" t="s">
+        <v>70</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
       <c r="J143">
@@ -4978,20 +5202,27 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>42152</v>
+        <v>42160</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C144" s="6"/>
-      <c r="D144" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
       <c r="E144" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="6"/>
-      <c r="G144" s="6"/>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6">
+        <v>13</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="G144" t="s">
+        <v>69</v>
+      </c>
+      <c r="H144" t="s">
+        <v>70</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
       <c r="J144">
@@ -5018,20 +5249,27 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>42152</v>
+        <v>42160</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
       <c r="E145" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6">
+        <v>15</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="G145" t="s">
+        <v>68</v>
+      </c>
+      <c r="H145" t="s">
+        <v>70</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
       <c r="J145">
@@ -5054,35 +5292,36 @@
       </c>
       <c r="P145">
         <v>0</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>42152</v>
+        <v>42160</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
       <c r="E146" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="6"/>
-      <c r="G146" s="6"/>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6">
+        <v>21</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0.56736111111111109</v>
+      </c>
+      <c r="G146" t="s">
+        <v>68</v>
+      </c>
+      <c r="H146" t="s">
+        <v>70</v>
+      </c>
+      <c r="I146">
         <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
       <c r="L146">
         <v>0</v>
       </c>
@@ -5097,6 +5336,9 @@
       </c>
       <c r="P146">
         <v>0</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
@@ -5104,22 +5346,22 @@
         <v>42160</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F147" s="2">
-        <v>0.375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="G147" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -5148,25 +5390,25 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
-        <v>11</v>
+        <v>75</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F148" s="2">
-        <v>0.43333333333333335</v>
+        <v>0.45416666666666666</v>
       </c>
       <c r="G148" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -5175,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -5191,29 +5433,32 @@
       </c>
       <c r="P148">
         <v>0</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F149" s="2">
-        <v>0.46527777777777773</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G149" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H149" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -5225,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="L149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -5242,25 +5487,25 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F150" s="2">
-        <v>0.48402777777777778</v>
+        <v>0.5625</v>
       </c>
       <c r="G150" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H150" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -5289,25 +5534,25 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F151" s="2">
-        <v>0.56736111111111109</v>
+        <v>0.57361111111111118</v>
       </c>
       <c r="G151" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H151" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -5315,8 +5560,8 @@
       <c r="J151">
         <v>0</v>
       </c>
-      <c r="K151" t="s">
-        <v>73</v>
+      <c r="K151">
+        <v>0</v>
       </c>
       <c r="L151">
         <v>0</v>
@@ -5332,32 +5577,29 @@
       </c>
       <c r="P151">
         <v>0</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>42160</v>
+        <v>42167</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="F152" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H152" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -5389,22 +5631,22 @@
         <v>42167</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C153">
         <v>75</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F153" s="2">
-        <v>0.45416666666666666</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G153" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5413,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153">
         <v>0</v>
@@ -5429,32 +5671,26 @@
       </c>
       <c r="P153">
         <v>0</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>42167</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>78</v>
+        <v>42174</v>
+      </c>
+      <c r="B154" t="s">
+        <v>74</v>
       </c>
       <c r="C154">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" s="2">
-        <v>0.54166666666666663</v>
+        <v>8</v>
       </c>
       <c r="G154" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H154" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -5466,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M154">
         <v>0</v>
@@ -5483,25 +5719,22 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>42167</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>78</v>
+        <v>42174</v>
+      </c>
+      <c r="B155" t="s">
+        <v>74</v>
       </c>
       <c r="C155">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="2">
-        <v>0.5625</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H155" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5530,25 +5763,22 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>42167</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>78</v>
+        <v>42174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>74</v>
       </c>
       <c r="C156">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F156" s="2">
-        <v>0.57361111111111118</v>
+        <v>13</v>
       </c>
       <c r="G156" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5577,25 +5807,22 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>42167</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>78</v>
+        <v>42174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>74</v>
       </c>
       <c r="C157">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F157" s="2">
-        <v>0.63888888888888895</v>
+        <v>15</v>
       </c>
       <c r="G157" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H157" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -5624,25 +5851,22 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>42167</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>78</v>
+        <v>42174</v>
+      </c>
+      <c r="B158" t="s">
+        <v>74</v>
       </c>
       <c r="C158">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F158" s="2">
-        <v>0.64583333333333337</v>
+        <v>19</v>
       </c>
       <c r="G158" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H158" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -5674,19 +5898,19 @@
         <v>42174</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C159">
         <v>50</v>
       </c>
-      <c r="E159" t="s">
-        <v>82</v>
+      <c r="E159" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="G159" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H159" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -5712,25 +5936,29 @@
       <c r="P159">
         <v>0</v>
       </c>
+      <c r="Q159" s="7"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>42174</v>
+        <v>42181</v>
       </c>
       <c r="B160" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C160">
-        <v>50</v>
-      </c>
-      <c r="E160" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="2">
+        <v>0.41041666666666665</v>
       </c>
       <c r="G160" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H160" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -5756,25 +5984,29 @@
       <c r="P160">
         <v>0</v>
       </c>
+      <c r="Q160" s="7"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>42174</v>
+        <v>42181</v>
       </c>
       <c r="B161" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C161">
-        <v>50</v>
-      </c>
-      <c r="E161" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="2">
+        <v>0.46180555555555558</v>
       </c>
       <c r="G161" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H161" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -5803,22 +6035,25 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>42174</v>
+        <v>42181</v>
       </c>
       <c r="B162" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C162">
-        <v>50</v>
-      </c>
-      <c r="E162" t="s">
-        <v>86</v>
+        <v>0</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" s="2">
+        <v>0.48888888888888887</v>
       </c>
       <c r="G162" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H162" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -5826,7 +6061,7 @@
       <c r="J162">
         <v>0</v>
       </c>
-      <c r="K162">
+      <c r="K162" s="11">
         <v>0</v>
       </c>
       <c r="L162">
@@ -5847,22 +6082,25 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>42174</v>
+        <v>42181</v>
       </c>
       <c r="B163" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C163">
-        <v>50</v>
-      </c>
-      <c r="E163" t="s">
-        <v>87</v>
+        <v>0</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="2">
+        <v>0.50555555555555554</v>
       </c>
       <c r="G163" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H163" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -5891,22 +6129,25 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>42174</v>
+        <v>42181</v>
       </c>
       <c r="B164" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C164">
-        <v>50</v>
-      </c>
-      <c r="E164" t="s">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0.52986111111111112</v>
       </c>
       <c r="G164" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H164" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -5932,29 +6173,28 @@
       <c r="P164">
         <v>0</v>
       </c>
-      <c r="Q164" s="7"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>42181</v>
       </c>
       <c r="B165" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
-      <c r="E165" t="s">
-        <v>82</v>
+      <c r="E165" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F165" s="2">
-        <v>0.41041666666666665</v>
+        <v>0.10972222222222222</v>
       </c>
       <c r="G165" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -5980,296 +6220,2596 @@
       <c r="P165">
         <v>0</v>
       </c>
-      <c r="Q165" s="7"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42181</v>
       </c>
       <c r="B166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" t="s">
+        <v>76</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="6">
+        <v>50</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" s="9">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I167" s="6">
+        <v>6</v>
+      </c>
+      <c r="J167" s="6">
+        <v>14</v>
+      </c>
+      <c r="K167" s="6">
+        <v>0</v>
+      </c>
+      <c r="L167" s="6">
+        <v>0</v>
+      </c>
+      <c r="M167" s="6">
+        <v>0</v>
+      </c>
+      <c r="N167" s="6">
+        <v>0</v>
+      </c>
+      <c r="O167" s="6">
+        <v>0</v>
+      </c>
+      <c r="P167" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C168" s="6">
+        <v>50</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168" s="6">
+        <v>0</v>
+      </c>
+      <c r="J168" s="6">
+        <v>0</v>
+      </c>
+      <c r="K168" s="6">
+        <v>0</v>
+      </c>
+      <c r="L168" s="6">
+        <v>0</v>
+      </c>
+      <c r="M168" s="6">
+        <v>0</v>
+      </c>
+      <c r="N168" s="6">
+        <v>0</v>
+      </c>
+      <c r="O168" s="6">
+        <v>0</v>
+      </c>
+      <c r="P168" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C169" s="6">
+        <v>50</v>
+      </c>
+      <c r="D169" s="6"/>
+      <c r="E169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" s="9">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I169" s="6">
+        <v>0</v>
+      </c>
+      <c r="J169" s="6">
+        <v>0</v>
+      </c>
+      <c r="K169" s="6">
+        <v>0</v>
+      </c>
+      <c r="L169" s="6">
+        <v>0</v>
+      </c>
+      <c r="M169" s="6">
+        <v>0</v>
+      </c>
+      <c r="N169" s="6">
+        <v>0</v>
+      </c>
+      <c r="O169" s="6">
+        <v>0</v>
+      </c>
+      <c r="P169" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C170" s="6">
+        <v>50</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="9">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I170" s="10"/>
+      <c r="J170" s="6">
+        <v>0</v>
+      </c>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6">
+        <v>0</v>
+      </c>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6">
+        <v>0</v>
+      </c>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" s="6">
+        <v>50</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" t="s">
+        <v>17</v>
+      </c>
+      <c r="F171" s="9">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6">
+        <v>0</v>
+      </c>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6">
+        <v>0</v>
+      </c>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6">
+        <v>0</v>
+      </c>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" s="6">
+        <v>50</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" s="9">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6">
+        <v>0</v>
+      </c>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6">
+        <v>0</v>
+      </c>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6">
+        <v>0</v>
+      </c>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A173" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C173" s="6">
+        <v>50</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" s="9">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6">
+        <v>0</v>
+      </c>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6">
+        <v>0</v>
+      </c>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6">
+        <v>0</v>
+      </c>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q173" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
+        <v>42229</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C174" s="6">
+        <v>50</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F174" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6">
+        <v>0</v>
+      </c>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6">
+        <v>0</v>
+      </c>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6">
+        <v>0</v>
+      </c>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C175" s="6">
+        <v>100</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" s="9">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6">
+        <f>AVERAGE(44,43)</f>
+        <v>43.5</v>
+      </c>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6">
+        <v>0</v>
+      </c>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6">
+        <v>0</v>
+      </c>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A176" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C176" s="6">
+        <v>100</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I176" s="6">
+        <v>0</v>
+      </c>
+      <c r="J176" s="6">
+        <v>0</v>
+      </c>
+      <c r="K176" s="6">
+        <v>0</v>
+      </c>
+      <c r="L176" s="6">
+        <v>0</v>
+      </c>
+      <c r="M176" s="6">
+        <v>0</v>
+      </c>
+      <c r="N176" s="6">
+        <v>0</v>
+      </c>
+      <c r="O176" s="6">
+        <v>0</v>
+      </c>
+      <c r="P176" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A177" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C177" s="6">
+        <v>100</v>
+      </c>
+      <c r="D177" s="6"/>
+      <c r="E177" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="9">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I177" s="6">
+        <v>0</v>
+      </c>
+      <c r="J177" s="6">
+        <f>AVERAGE(11,9)</f>
+        <v>10</v>
+      </c>
+      <c r="K177" s="6">
+        <v>0</v>
+      </c>
+      <c r="L177" s="6">
+        <v>0</v>
+      </c>
+      <c r="M177" s="6">
+        <v>0</v>
+      </c>
+      <c r="N177" s="6">
+        <v>0</v>
+      </c>
+      <c r="O177" s="6">
+        <v>0</v>
+      </c>
+      <c r="P177" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C178" s="6">
+        <v>100</v>
+      </c>
+      <c r="D178" s="6"/>
+      <c r="E178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="9">
+        <v>0.59791666666666665</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H178" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6">
+        <f>AVERAGE(13,11)</f>
+        <v>12</v>
+      </c>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6">
+        <v>0</v>
+      </c>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6">
+        <v>0</v>
+      </c>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C179" s="6">
+        <v>100</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" t="s">
+        <v>17</v>
+      </c>
+      <c r="F179" s="9">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6">
+        <v>0</v>
+      </c>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6">
+        <v>0</v>
+      </c>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A180" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C180" s="6">
+        <v>100</v>
+      </c>
+      <c r="D180" s="6"/>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180" s="9">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H180" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6">
+        <v>0</v>
+      </c>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6">
+        <v>0</v>
+      </c>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6">
+        <v>0</v>
+      </c>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C181" s="6">
+        <v>100</v>
+      </c>
+      <c r="D181" s="6"/>
+      <c r="E181" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F181" s="9">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H181" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6">
+        <v>0</v>
+      </c>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6">
+        <v>0</v>
+      </c>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6">
+        <v>0</v>
+      </c>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A182" s="8">
+        <v>42237</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C182" s="6">
+        <v>100</v>
+      </c>
+      <c r="D182" s="6"/>
+      <c r="E182" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="9">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6">
+        <v>0</v>
+      </c>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6">
+        <v>0</v>
+      </c>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6">
+        <v>0</v>
+      </c>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A183" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C183" s="6">
+        <v>100</v>
+      </c>
+      <c r="D183" s="6"/>
+      <c r="E183" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="9">
+        <v>0.44166666666666665</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6">
+        <f>AVERAGE(72,64)</f>
+        <v>68</v>
+      </c>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6">
+        <v>0</v>
+      </c>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6">
+        <v>0</v>
+      </c>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A184" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C184" s="6">
+        <v>100</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H184" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J184" s="6">
+        <v>0</v>
+      </c>
+      <c r="L184" s="6">
+        <v>0</v>
+      </c>
+      <c r="N184" s="6">
+        <v>0</v>
+      </c>
+      <c r="P184" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A185" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="6">
+        <v>100</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I185">
+        <f>AVERAGE(13,6)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J185">
+        <f>AVERAGE(103,99)</f>
+        <v>101</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A186" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C186" s="6">
+        <v>100</v>
+      </c>
+      <c r="E186" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="2">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H186" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J186">
+        <v>8</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A187" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C187" s="6">
+        <v>100</v>
+      </c>
+      <c r="E187" t="s">
+        <v>17</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J187">
+        <f>AVERAGE(12,16)</f>
+        <v>14</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A188" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C188" s="6">
+        <v>100</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H188" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J188">
+        <f>AVERAGE(0,1)</f>
+        <v>0.5</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A189" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C189" s="6">
+        <v>100</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H189" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A190" s="8">
+        <v>42244</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" s="6">
+        <v>100</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="2">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F166" s="2">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="G166" t="s">
-        <v>74</v>
-      </c>
-      <c r="H166" t="s">
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C191" s="6">
+        <v>100</v>
+      </c>
+      <c r="E191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q191" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C192" s="6">
+        <v>100</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G192" t="s">
+        <v>68</v>
+      </c>
+      <c r="H192" t="s">
+        <v>75</v>
+      </c>
+      <c r="I192">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="J192">
+        <f>AVERAGE(25,25)</f>
+        <v>25</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C193" s="6">
+        <v>100</v>
+      </c>
+      <c r="E193" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>68</v>
+      </c>
+      <c r="H193" t="s">
+        <v>75</v>
+      </c>
+      <c r="I193">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="J193">
+        <f>AVERAGE(96,106)</f>
+        <v>101</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C194" s="6">
+        <v>100</v>
+      </c>
+      <c r="E194" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="2">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="G194" t="s">
+        <v>68</v>
+      </c>
+      <c r="H194" t="s">
+        <v>75</v>
+      </c>
+      <c r="J194">
+        <f>AVERAGE(120,120)</f>
+        <v>120</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C195" s="6">
+        <v>100</v>
+      </c>
+      <c r="E195" t="s">
+        <v>17</v>
+      </c>
+      <c r="F195" s="2">
+        <v>0.55486111111111114</v>
+      </c>
+      <c r="G195" t="s">
+        <v>69</v>
+      </c>
+      <c r="H195" t="s">
+        <v>75</v>
+      </c>
+      <c r="J195">
+        <f>AVERAGE(8,10)</f>
+        <v>9</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="s">
         <v>84</v>
       </c>
-      <c r="I166">
-        <v>0</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="N166">
-        <v>0</v>
-      </c>
-      <c r="O166">
-        <v>0</v>
-      </c>
-      <c r="P166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B167" t="s">
-        <v>81</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-      <c r="E167" t="s">
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C196" s="6">
+        <v>100</v>
+      </c>
+      <c r="E196" t="s">
+        <v>18</v>
+      </c>
+      <c r="F196" s="2">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="G196" t="s">
+        <v>69</v>
+      </c>
+      <c r="H196" t="s">
+        <v>75</v>
+      </c>
+      <c r="J196">
+        <v>0.5</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="6">
+        <v>100</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0.61388888888888882</v>
+      </c>
+      <c r="G197" t="s">
+        <v>69</v>
+      </c>
+      <c r="H197" t="s">
+        <v>75</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C198" s="6">
+        <v>100</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F198" s="2">
+        <v>0.64513888888888882</v>
+      </c>
+      <c r="G198" t="s">
+        <v>68</v>
+      </c>
+      <c r="H198" t="s">
+        <v>75</v>
+      </c>
+      <c r="J198">
+        <f>AVERAGE(21,12)</f>
+        <v>16.5</v>
+      </c>
+      <c r="L198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="s">
         <v>85</v>
       </c>
-      <c r="F167" s="2">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="G167" t="s">
-        <v>74</v>
-      </c>
-      <c r="H167" t="s">
-        <v>84</v>
-      </c>
-      <c r="I167">
-        <v>0</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="N167">
-        <v>0</v>
-      </c>
-      <c r="O167">
-        <v>0</v>
-      </c>
-      <c r="P167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B168" t="s">
-        <v>81</v>
-      </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
-        <v>86</v>
-      </c>
-      <c r="F168" s="2">
-        <v>0.50555555555555554</v>
-      </c>
-      <c r="G168" t="s">
-        <v>74</v>
-      </c>
-      <c r="H168" t="s">
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>42251</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C199" s="6">
+        <v>100</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F199" s="2">
+        <v>0.66805555555555562</v>
+      </c>
+      <c r="G199" t="s">
+        <v>68</v>
+      </c>
+      <c r="H199" t="s">
         <v>76</v>
       </c>
-      <c r="I168">
-        <v>0</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="N168">
-        <v>0</v>
-      </c>
-      <c r="O168">
-        <v>0</v>
-      </c>
-      <c r="P168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B169" t="s">
-        <v>81</v>
-      </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="E169" t="s">
-        <v>87</v>
-      </c>
-      <c r="F169" s="2">
-        <v>0.52986111111111112</v>
-      </c>
-      <c r="G169" t="s">
-        <v>75</v>
-      </c>
-      <c r="H169" t="s">
-        <v>76</v>
-      </c>
-      <c r="I169">
-        <v>0</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
-      <c r="N169">
-        <v>0</v>
-      </c>
-      <c r="O169">
-        <v>0</v>
-      </c>
-      <c r="P169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B170" t="s">
-        <v>81</v>
-      </c>
-      <c r="C170">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
-        <v>88</v>
-      </c>
-      <c r="F170" s="2">
-        <v>0.10972222222222222</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="J199">
+        <f>AVERAGE(64,3)</f>
+        <v>33.5</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B200" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H170" t="s">
-        <v>76</v>
-      </c>
-      <c r="I170">
-        <v>0</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>0</v>
-      </c>
-      <c r="M170">
-        <v>0</v>
-      </c>
-      <c r="N170">
-        <v>0</v>
-      </c>
-      <c r="O170">
-        <v>0</v>
-      </c>
-      <c r="P170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
-        <v>42181</v>
-      </c>
-      <c r="B171" t="s">
-        <v>81</v>
-      </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="C200" s="6">
+        <v>0</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="2">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="G200" t="s">
+        <v>69</v>
+      </c>
+      <c r="H200" t="s">
+        <v>70</v>
+      </c>
+      <c r="I200">
+        <v>3</v>
+      </c>
+      <c r="J200">
+        <f>(38+58)/2</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C201" s="6">
+        <v>0</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G201" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" t="s">
+        <v>75</v>
+      </c>
+      <c r="I201">
+        <v>5.5</v>
+      </c>
+      <c r="J201">
+        <f>7</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" s="6">
+        <v>0</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="2">
+        <v>0.53125</v>
+      </c>
+      <c r="G202" t="s">
+        <v>68</v>
+      </c>
+      <c r="H202" t="s">
+        <v>75</v>
+      </c>
+      <c r="J202">
+        <f>(57+60)/2</f>
+        <v>58.5</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="Q202" t="s">
         <v>90</v>
       </c>
-      <c r="F171" s="2">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="G171" t="s">
-        <v>74</v>
-      </c>
-      <c r="H171" t="s">
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C203" s="6">
+        <v>0</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F203" s="2">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="G203" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" t="s">
+        <v>70</v>
+      </c>
+      <c r="J203">
+        <f>(35+56)/2</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C204" s="6">
+        <v>0</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F204" s="2">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="G204" t="s">
+        <v>68</v>
+      </c>
+      <c r="H204" t="s">
+        <v>75</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" s="6">
+        <v>0</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>69</v>
+      </c>
+      <c r="H205" t="s">
+        <v>75</v>
+      </c>
+      <c r="J205">
+        <f>(35+28)/2</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="6">
+        <v>0</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" t="s">
+        <v>68</v>
+      </c>
+      <c r="H206" t="s">
+        <v>75</v>
+      </c>
+      <c r="J206">
+        <f>(140+143)/2</f>
+        <v>141.5</v>
+      </c>
+      <c r="Q206" t="s">
         <v>91</v>
       </c>
-      <c r="I171">
-        <v>0</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>0</v>
-      </c>
-      <c r="M171">
-        <v>0</v>
-      </c>
-      <c r="N171">
-        <v>0</v>
-      </c>
-      <c r="O171">
-        <v>0</v>
-      </c>
-      <c r="P171">
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" s="6">
+        <v>0</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207" t="s">
+        <v>68</v>
+      </c>
+      <c r="H207" t="s">
+        <v>75</v>
+      </c>
+      <c r="J207">
+        <v>5</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>42258</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="6">
+        <v>0</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208" t="s">
+        <v>69</v>
+      </c>
+      <c r="H208" t="s">
+        <v>75</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C209" s="6">
+        <v>100</v>
+      </c>
+      <c r="E209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="G209" t="s">
+        <v>68</v>
+      </c>
+      <c r="H209" t="s">
+        <v>75</v>
+      </c>
+      <c r="I209">
+        <v>1.5</v>
+      </c>
+      <c r="J209">
+        <f>(57+65)/2</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C210" s="6">
+        <v>100</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210" s="2">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="G210" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" t="s">
+        <v>75</v>
+      </c>
+      <c r="I210">
+        <v>14</v>
+      </c>
+      <c r="J210">
+        <f>(10+13)/2</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C211" s="6">
+        <v>100</v>
+      </c>
+      <c r="E211" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="2">
+        <v>0.57152777777777775</v>
+      </c>
+      <c r="G211" t="s">
+        <v>68</v>
+      </c>
+      <c r="H211" t="s">
+        <v>75</v>
+      </c>
+      <c r="I211">
+        <v>4.5</v>
+      </c>
+      <c r="J211">
+        <f>(36+37)/2</f>
+        <v>36.5</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C212" s="6">
+        <v>100</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F212" s="2">
+        <v>0.6020833333333333</v>
+      </c>
+      <c r="G212" t="s">
+        <v>68</v>
+      </c>
+      <c r="H212" t="s">
+        <v>75</v>
+      </c>
+      <c r="J212">
+        <f>(29+33)/2</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C213" s="6">
+        <v>100</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F213" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="G213" t="s">
+        <v>69</v>
+      </c>
+      <c r="H213" t="s">
+        <v>75</v>
+      </c>
+      <c r="J213">
+        <f>(7+10)/2</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C214" s="6">
+        <v>100</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F214" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G214" t="s">
+        <v>69</v>
+      </c>
+      <c r="H214" t="s">
+        <v>75</v>
+      </c>
+      <c r="J214">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C215" s="6">
+        <v>100</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F215" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G215" t="s">
+        <v>75</v>
+      </c>
+      <c r="H215" t="s">
+        <v>75</v>
+      </c>
+      <c r="J215">
+        <f>(20+15)/2</f>
+        <v>17.5</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C216" s="6">
+        <v>100</v>
+      </c>
+      <c r="E216" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F216" s="2">
+        <v>0.70416666666666661</v>
+      </c>
+      <c r="G216" t="s">
+        <v>68</v>
+      </c>
+      <c r="H216" t="s">
+        <v>75</v>
+      </c>
+      <c r="J216">
+        <f>(45+46)/2</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>42265</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="6">
+        <v>100</v>
+      </c>
+      <c r="E217" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F217" s="2">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="G217" t="s">
+        <v>68</v>
+      </c>
+      <c r="H217" t="s">
+        <v>75</v>
+      </c>
+      <c r="I217">
+        <v>10</v>
+      </c>
+      <c r="J217">
+        <f>(81+77)/2</f>
+        <v>79</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C218" s="6">
+        <v>25</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="2">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="G218" t="s">
+        <v>75</v>
+      </c>
+      <c r="H218" t="s">
+        <v>70</v>
+      </c>
+      <c r="J218">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C219" s="6">
+        <v>25</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219" s="2">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="G219" t="s">
+        <v>68</v>
+      </c>
+      <c r="H219" t="s">
+        <v>70</v>
+      </c>
+      <c r="J219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C220" s="6">
+        <v>25</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" s="2">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="G220" t="s">
+        <v>68</v>
+      </c>
+      <c r="H220" t="s">
+        <v>75</v>
+      </c>
+      <c r="J220">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C221" s="6">
+        <v>25</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F221" s="2">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="G221" t="s">
+        <v>68</v>
+      </c>
+      <c r="H221" t="s">
+        <v>75</v>
+      </c>
+      <c r="J221">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C222" s="6">
+        <v>25</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F222" s="2">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="G222" t="s">
+        <v>69</v>
+      </c>
+      <c r="H222" t="s">
+        <v>75</v>
+      </c>
+      <c r="J222">
+        <v>7</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C223" s="6">
+        <v>25</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F223" s="2">
+        <v>0.63124999999999998</v>
+      </c>
+      <c r="G223" t="s">
+        <v>69</v>
+      </c>
+      <c r="H223" t="s">
+        <v>75</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C224" s="6">
+        <v>25</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="G224" t="s">
+        <v>75</v>
+      </c>
+      <c r="H224" t="s">
+        <v>75</v>
+      </c>
+      <c r="J224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C225" s="6">
+        <v>25</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F225" s="2">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="G225" t="s">
+        <v>75</v>
+      </c>
+      <c r="H225" t="s">
+        <v>75</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>42273</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C226" s="6">
+        <v>25</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F226" s="2">
+        <v>0.69652777777777775</v>
+      </c>
+      <c r="G226" t="s">
+        <v>68</v>
+      </c>
+      <c r="H226" t="s">
+        <v>75</v>
+      </c>
+      <c r="J226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" s="6">
+        <v>100</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="G227" t="s">
+        <v>68</v>
+      </c>
+      <c r="H227" t="s">
+        <v>75</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="6">
+        <v>100</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F228" s="2">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="G228" t="s">
+        <v>68</v>
+      </c>
+      <c r="H228" t="s">
+        <v>70</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C229" s="6">
+        <v>100</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="G229" t="s">
+        <v>68</v>
+      </c>
+      <c r="H229" t="s">
+        <v>70</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C230" s="6">
+        <v>100</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F230" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="G230" t="s">
+        <v>75</v>
+      </c>
+      <c r="H230" t="s">
+        <v>70</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C231" s="6">
+        <v>100</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F231" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="G231" t="s">
+        <v>69</v>
+      </c>
+      <c r="H231" t="s">
+        <v>75</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C232" s="6">
+        <v>100</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F232" s="2"/>
+      <c r="G232" t="s">
+        <v>69</v>
+      </c>
+      <c r="H232" t="s">
+        <v>75</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C233" s="6">
+        <v>100</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F233" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="G233" t="s">
+        <v>75</v>
+      </c>
+      <c r="H233" t="s">
+        <v>75</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>42279</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="6">
+        <v>100</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F234" s="2"/>
+      <c r="G234" t="s">
+        <v>68</v>
+      </c>
+      <c r="H234" t="s">
+        <v>75</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" s="6">
+        <v>100</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G235" t="s">
+        <v>68</v>
+      </c>
+      <c r="H235" t="s">
+        <v>70</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C236" s="6">
+        <v>100</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="G236" t="s">
+        <v>68</v>
+      </c>
+      <c r="H236" t="s">
+        <v>70</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B237" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C237" s="6">
+        <v>100</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F237" s="2">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="G237" t="s">
+        <v>68</v>
+      </c>
+      <c r="H237" t="s">
+        <v>70</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C238" s="6">
+        <v>100</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F238" s="2"/>
+      <c r="G238" t="s">
+        <v>68</v>
+      </c>
+      <c r="H238" t="s">
+        <v>70</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C239" s="6">
+        <v>100</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" t="s">
+        <v>75</v>
+      </c>
+      <c r="H239" t="s">
+        <v>70</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C240" s="6">
+        <v>100</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" t="s">
+        <v>75</v>
+      </c>
+      <c r="H240" t="s">
+        <v>70</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>42286</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C241" s="6">
+        <v>100</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" t="s">
+        <v>68</v>
+      </c>
+      <c r="H241" t="s">
+        <v>75</v>
+      </c>
+      <c r="J241">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q128"/>
+  <autoFilter ref="A1:Q241"/>
   <sortState ref="A2:L122">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/VisualSurvey_RImport.xlsx
+++ b/VisualSurvey_RImport.xlsx
@@ -778,11 +778,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K146" sqref="K146"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>41423</v>
       </c>
@@ -877,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>41423</v>
       </c>
@@ -900,7 +901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>41423</v>
       </c>
@@ -943,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>41430</v>
       </c>
@@ -963,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41430</v>
       </c>
@@ -983,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>41430</v>
       </c>
@@ -1023,7 +1024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>41436</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>41436</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>41436</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>41443</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>41443</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>41443</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>41457</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>41457</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41457</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>41464</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>41464</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>41464</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>41471</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>41471</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41471</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41509</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>41509</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>41515</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>41515</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>41523</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41523</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>41773</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>41773</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>41773</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>41773</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41773</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41773</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>41773</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>41779</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41779</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>41779</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>41779</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>41779</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>41779</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>41786</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>41786</v>
       </c>
@@ -2115,7 +2116,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>41786</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>41786</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>41786</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>41786</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>41802</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>41802</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>41802</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>41802</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>41802</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>41810</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>41810</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>41810</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>41810</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>41810</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>41870</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>41870</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>41870</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>41870</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>41870</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>41870</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>41870</v>
       </c>
@@ -2896,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41877</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>41877</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>41877</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41877</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>41877</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>41877</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>41877</v>
       </c>
@@ -3155,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>41885</v>
       </c>
@@ -3190,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>41885</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>41885</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>41885</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>41885</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>41885</v>
       </c>
@@ -3406,7 +3407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>41892</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>41892</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>41892</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>41892</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>41892</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>41892</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>41892</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>41898</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>41898</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>41898</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>41898</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>41898</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>41898</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>41905</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>41905</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>41905</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>41905</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>41905</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>41913</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>41913</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>41913</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>41913</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>41913</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>41913</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>42132</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>42132</v>
       </c>
@@ -4423,7 +4424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>42132</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>42132</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>42132</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>42132</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>42139</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>42139</v>
       </c>
@@ -4703,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>42139</v>
       </c>
@@ -4743,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>42139</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>42139</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>42152</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>42152</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>42152</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>42152</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>42152</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>42160</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>42160</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>42160</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>42160</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>42160</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>42167</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>42167</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>42167</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>42167</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>42167</v>
       </c>
@@ -5673,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>42174</v>
       </c>
@@ -5717,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>42174</v>
       </c>
@@ -5761,7 +5762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>42174</v>
       </c>
@@ -5849,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>42174</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>42174</v>
       </c>
@@ -5938,7 +5939,7 @@
       </c>
       <c r="Q159" s="7"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>42181</v>
       </c>
@@ -5986,7 +5987,7 @@
       </c>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>42181</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>42181</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>42181</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>42181</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>42181</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>42229</v>
       </c>
@@ -6317,7 +6318,7 @@
       </c>
       <c r="Q167" s="6"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>42229</v>
       </c>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="Q168" s="6"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>42229</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>42229</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>42229</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>42229</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>42229</v>
       </c>
@@ -6630,7 +6631,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>42237</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>42237</v>
       </c>
@@ -6723,7 +6724,7 @@
       </c>
       <c r="Q176" s="6"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>42237</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>42237</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>42237</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>42237</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>42237</v>
       </c>
@@ -6989,7 +6990,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>42244</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>42244</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>42244</v>
       </c>
@@ -7161,7 +7162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>42244</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>42244</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>42244</v>
       </c>
@@ -7277,7 +7278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>42244</v>
       </c>
@@ -7315,7 +7316,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>42251</v>
       </c>
@@ -7332,7 +7333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>42251</v>
       </c>
@@ -7384,7 +7385,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>42251</v>
       </c>
@@ -7475,7 +7476,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>42251</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>42251</v>
       </c>
@@ -7552,7 +7553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>42251</v>
       </c>
@@ -7587,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>42251</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>42251</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>42258</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>42258</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>42258</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>42258</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>42258</v>
       </c>
@@ -7832,7 +7833,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>42258</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>42258</v>
       </c>
@@ -7885,7 +7886,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>42258</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>42265</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>42265</v>
       </c>
@@ -7971,7 +7972,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>42265</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>42265</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>42265</v>
       </c>
@@ -8088,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>42265</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>42265</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>42265</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>42273</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>42273</v>
       </c>
@@ -8230,7 +8231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>42273</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>42273</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>42273</v>
       </c>
@@ -8340,7 +8341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>42273</v>
       </c>
@@ -8366,7 +8367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>42273</v>
       </c>
@@ -8392,7 +8393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>42273</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>42279</v>
       </c>
@@ -8444,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>42279</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>42279</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>42279</v>
       </c>
@@ -8551,7 +8552,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>42279</v>
       </c>
@@ -8578,7 +8579,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>42279</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>42279</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>42286</v>
       </c>
@@ -8654,7 +8655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>42286</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>42286</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>42286</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>42286</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>42286</v>
       </c>
@@ -8803,7 +8804,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q241"/>
+  <autoFilter ref="A1:Q241">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="sucker creek"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:L122">
     <sortCondition ref="A1"/>
   </sortState>
